--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -438,6 +453,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +553,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,285 +575,330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -856,2165 +920,2492 @@
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,73 +32,76 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Atto di pre-riconoscimento</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>43.1</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -921,2491 +924,2491 @@
         <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -458,7 +458,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -556,7 +556,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -431,22 +437,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1303,7 +1309,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1395,7 +1401,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1510,7 +1516,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1582,10 +1588,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1599,13 +1605,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>95</v>
@@ -1619,22 +1625,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>34</v>
@@ -1642,22 +1648,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,22 +1786,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>34</v>
@@ -1803,22 +1809,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1826,22 +1832,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>34</v>
@@ -1849,22 +1855,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1872,22 +1878,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1964,22 +1970,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -2033,22 +2039,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2056,22 +2062,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>34</v>
@@ -2079,22 +2085,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,10 +2177,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2183,7 +2189,7 @@
         <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,10 +2269,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
@@ -2275,7 +2281,7 @@
         <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,10 +2292,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
@@ -2298,7 +2304,7 @@
         <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>110</v>
@@ -2341,10 +2347,10 @@
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,10 +2453,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2459,7 +2465,7 @@
         <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,10 +2476,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2482,7 +2488,7 @@
         <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,22 +2775,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>22</v>
@@ -2815,599 +2821,668 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -464,7 +464,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -562,7 +565,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3376,7 +3379,7 @@
         <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3396,10 +3399,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3408,7 +3411,7 @@
         <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,10 +3422,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3431,7 +3434,7 @@
         <v>94</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>24</v>
@@ -3442,10 +3445,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3454,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,10 +3468,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -3477,7 +3480,7 @@
         <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3379,7 +3376,7 @@
         <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3399,10 +3396,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3411,7 +3408,7 @@
         <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,10 +3419,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3434,7 +3431,7 @@
         <v>94</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>24</v>
@@ -3445,10 +3442,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3457,7 +3454,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,10 +3465,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -3480,7 +3477,7 @@
         <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3376,7 +3379,7 @@
         <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -3396,10 +3399,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3408,7 +3411,7 @@
         <v>94</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,10 +3422,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3431,7 +3434,7 @@
         <v>94</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>24</v>
@@ -3442,10 +3445,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3454,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,10 +3468,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -3477,7 +3480,7 @@
         <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,36 @@
   </si>
   <si>
     <t>11,43.1,30</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -553,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -563,7 +593,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2180,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,22 +2233,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2226,19 +2256,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2249,22 +2279,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2272,22 +2302,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2295,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2463,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2486,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2532,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2555,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2578,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2601,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2624,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2670,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,19 +2693,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2716,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2709,19 +2739,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,19 +2762,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2755,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2778,19 +2808,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2801,22 +2831,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2824,22 +2854,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -2847,19 +2877,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,622 +2900,829 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -2653,7 +2653,7 @@
         <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>114</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -583,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1158,7 +1164,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1250,7 +1256,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1365,7 +1371,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1388,7 +1394,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1457,7 +1463,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1572,7 +1578,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -1644,10 +1650,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1661,13 +1667,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1681,22 +1687,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>34</v>
@@ -1704,22 +1710,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1842,22 +1848,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>34</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>21</v>
@@ -1911,22 +1917,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1934,22 +1940,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1957,22 +1963,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2049,22 +2055,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2118,22 +2124,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>34</v>
@@ -2141,22 +2147,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2164,22 +2170,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2233,22 +2239,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>21</v>
@@ -2302,22 +2308,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>34</v>
@@ -2325,22 +2331,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2348,22 +2354,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2371,10 +2377,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2383,7 +2389,7 @@
         <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2486,10 +2492,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -2498,7 +2504,7 @@
         <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2509,7 +2515,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>55</v>
@@ -2518,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>56</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2762,10 +2768,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2774,7 +2780,7 @@
         <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2785,10 +2791,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2797,7 +2803,7 @@
         <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,22 +3044,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3061,22 +3067,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3107,622 +3113,714 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="2" t="s">
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1440,7 +1446,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -1463,7 +1469,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -1601,7 +1607,7 @@
         <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1673,10 +1679,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1690,13 +1696,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>99</v>
@@ -1710,22 +1716,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>34</v>
@@ -1733,22 +1739,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1894,22 +1900,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>34</v>
@@ -1917,22 +1923,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1940,22 +1946,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -1986,22 +1992,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2170,22 +2176,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2193,22 +2199,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>34</v>
@@ -2216,22 +2222,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,22 +2291,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>21</v>
@@ -2354,22 +2360,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2377,22 +2383,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2400,22 +2406,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2423,10 +2429,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2435,7 +2441,7 @@
         <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2538,10 +2544,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -2550,7 +2556,7 @@
         <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,10 +2567,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
@@ -2573,7 +2579,7 @@
         <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,7 +2613,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>124</v>
@@ -2616,10 +2622,10 @@
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,10 +2843,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2849,7 +2855,7 @@
         <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,10 +2866,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2872,7 +2878,7 @@
         <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,22 +3119,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3136,22 +3142,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3159,22 +3165,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3182,645 +3188,714 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1630,7 +1636,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1702,10 +1708,10 @@
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1719,13 +1725,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>101</v>
@@ -1739,22 +1745,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>34</v>
@@ -1762,22 +1768,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1923,22 +1929,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1946,22 +1952,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1969,22 +1975,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>34</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
@@ -2015,22 +2021,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2038,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2061,22 +2067,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>34</v>
@@ -2084,22 +2090,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>34</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -2176,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2222,22 +2228,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>34</v>
@@ -2245,22 +2251,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>34</v>
@@ -2268,22 +2274,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2337,22 +2343,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>21</v>
@@ -2406,22 +2412,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>34</v>
@@ -2429,22 +2435,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2452,22 +2458,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2475,10 +2481,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2493,7 @@
         <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2590,10 +2596,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
@@ -2602,7 +2608,7 @@
         <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2613,10 +2619,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
@@ -2625,7 +2631,7 @@
         <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2659,7 +2665,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>126</v>
@@ -2668,10 +2674,10 @@
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2889,10 +2895,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2907,7 @@
         <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2912,10 +2918,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2924,7 +2930,7 @@
         <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3010,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3125,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3165,22 +3171,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3188,22 +3194,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>34</v>
@@ -3211,22 +3217,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3234,668 +3240,737 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dati generali</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -326,6 +413,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -365,6 +461,15 @@
     <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Soggetto</t>
   </si>
   <si>
@@ -374,9 +479,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -515,9 +617,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -543,6 +642,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -601,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1084,312 +1189,312 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1400,19 +1505,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1423,19 +1528,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1446,19 +1551,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1469,19 +1574,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1492,19 +1597,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1620,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1643,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1666,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1689,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1712,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1735,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1758,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1781,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1804,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1827,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1850,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,22 +1873,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1791,19 +1896,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1919,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1942,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1965,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1988,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1906,19 +2011,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,19 +2034,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,22 +2057,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1975,19 +2080,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,22 +2103,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -2021,22 +2126,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2044,19 +2149,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,620 +2172,620 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2688,19 +2793,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2816,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2839,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2862,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2885,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2908,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2931,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,22 +2954,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2872,19 +2977,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,22 +3000,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -2918,22 +3023,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2941,19 +3046,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +3069,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,19 +3095,19 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3013,19 +3118,19 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3036,16 +3141,16 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3164,19 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3082,16 +3187,16 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3210,19 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3128,16 +3233,16 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3151,19 +3256,19 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3174,19 +3279,19 @@
         <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3197,16 +3302,16 @@
         <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3325,19 @@
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3243,19 +3348,19 @@
         <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3266,16 +3371,16 @@
         <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,691 +3391,2324 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -706,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2497,7 +2497,7 @@
         <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2506,7 +2506,7 @@
         <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2520,7 +2520,7 @@
         <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2529,7 +2529,7 @@
         <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2543,7 +2543,7 @@
         <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2552,7 +2552,7 @@
         <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2566,7 +2566,7 @@
         <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2575,7 +2575,7 @@
         <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2589,7 +2589,7 @@
         <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2598,7 +2598,7 @@
         <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2612,7 +2612,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2621,7 +2621,7 @@
         <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2644,7 +2644,7 @@
         <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2658,7 +2658,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2681,7 +2681,7 @@
         <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2690,7 +2690,7 @@
         <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2704,7 +2704,7 @@
         <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2713,7 +2713,7 @@
         <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2736,7 +2736,7 @@
         <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2747,25 +2747,25 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -2773,19 +2773,19 @@
         <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2796,16 +2796,16 @@
         <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2819,16 +2819,16 @@
         <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2842,7 +2842,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2851,7 +2851,7 @@
         <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2865,7 +2865,7 @@
         <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2874,7 +2874,7 @@
         <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2888,7 +2888,7 @@
         <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2897,7 +2897,7 @@
         <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2911,16 +2911,16 @@
         <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2943,10 +2943,10 @@
         <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2957,7 +2957,7 @@
         <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2966,10 +2966,10 @@
         <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2980,7 +2980,7 @@
         <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2989,10 +2989,10 @@
         <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -3003,7 +3003,7 @@
         <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -3012,7 +3012,7 @@
         <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -3026,19 +3026,19 @@
         <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -3049,7 +3049,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
@@ -3058,7 +3058,7 @@
         <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3072,19 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>34</v>
@@ -3095,7 +3095,7 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3104,7 +3104,7 @@
         <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -3118,7 +3118,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3127,10 +3127,10 @@
         <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3141,7 +3141,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3150,10 +3150,10 @@
         <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>34</v>
@@ -3164,7 +3164,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3173,10 +3173,10 @@
         <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3187,7 +3187,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3196,10 +3196,10 @@
         <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3210,7 +3210,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3219,10 +3219,10 @@
         <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3233,7 +3233,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3242,10 +3242,10 @@
         <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3256,7 +3256,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3265,7 +3265,7 @@
         <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>21</v>
@@ -3279,19 +3279,19 @@
         <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3302,7 +3302,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3311,7 +3311,7 @@
         <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3325,7 +3325,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3334,7 +3334,7 @@
         <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3348,16 +3348,16 @@
         <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3371,7 +3371,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3380,10 +3380,10 @@
         <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>34</v>
@@ -3394,7 +3394,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3403,10 +3403,10 @@
         <v>137</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3417,7 +3417,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3426,10 +3426,10 @@
         <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3440,7 +3440,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3449,7 +3449,7 @@
         <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>21</v>
@@ -3460,25 +3460,25 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
@@ -3486,19 +3486,19 @@
         <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>151</v>
@@ -3509,16 +3509,16 @@
         <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3532,16 +3532,16 @@
         <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3555,7 +3555,7 @@
         <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3564,7 +3564,7 @@
         <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3578,7 +3578,7 @@
         <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3587,7 +3587,7 @@
         <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3601,7 +3601,7 @@
         <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3610,7 +3610,7 @@
         <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3624,16 +3624,16 @@
         <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3647,7 +3647,7 @@
         <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3656,7 +3656,7 @@
         <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3670,7 +3670,7 @@
         <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3679,7 +3679,7 @@
         <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3693,7 +3693,7 @@
         <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3702,7 +3702,7 @@
         <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3716,7 +3716,7 @@
         <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3725,7 +3725,7 @@
         <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3739,16 +3739,16 @@
         <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3762,7 +3762,7 @@
         <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3771,7 +3771,7 @@
         <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3785,16 +3785,16 @@
         <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3808,7 +3808,7 @@
         <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3817,7 +3817,7 @@
         <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3831,7 +3831,7 @@
         <v>149</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3840,7 +3840,7 @@
         <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3854,7 +3854,7 @@
         <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3863,7 +3863,7 @@
         <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3877,7 +3877,7 @@
         <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3886,7 +3886,7 @@
         <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3900,7 +3900,7 @@
         <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3909,7 +3909,7 @@
         <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3923,7 +3923,7 @@
         <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3932,7 +3932,7 @@
         <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3946,7 +3946,7 @@
         <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3955,7 +3955,7 @@
         <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3969,7 +3969,7 @@
         <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3978,7 +3978,7 @@
         <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3992,16 +3992,16 @@
         <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4015,7 +4015,7 @@
         <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -4024,7 +4024,7 @@
         <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4038,7 +4038,7 @@
         <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
@@ -4047,7 +4047,7 @@
         <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4061,16 +4061,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4084,7 +4084,7 @@
         <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4093,7 +4093,7 @@
         <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4107,7 +4107,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4116,7 +4116,7 @@
         <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4130,7 +4130,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4139,7 +4139,7 @@
         <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4153,7 +4153,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4162,7 +4162,7 @@
         <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4173,25 +4173,25 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -4199,16 +4199,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4222,16 +4222,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4245,7 +4245,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4254,7 +4254,7 @@
         <v>65</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4268,16 +4268,16 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4291,16 +4291,16 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4314,7 +4314,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4323,7 +4323,7 @@
         <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4337,16 +4337,16 @@
         <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4360,7 +4360,7 @@
         <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4369,7 +4369,7 @@
         <v>65</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4383,16 +4383,16 @@
         <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4406,7 +4406,7 @@
         <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
@@ -4415,7 +4415,7 @@
         <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4429,16 +4429,16 @@
         <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4452,7 +4452,7 @@
         <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         <v>153</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4475,7 +4475,7 @@
         <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         <v>153</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4498,7 +4498,7 @@
         <v>152</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4507,7 +4507,7 @@
         <v>153</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4521,16 +4521,16 @@
         <v>152</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4544,16 +4544,16 @@
         <v>152</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         <v>152</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4576,7 +4576,7 @@
         <v>153</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4590,7 +4590,7 @@
         <v>152</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4599,7 +4599,7 @@
         <v>153</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4613,7 +4613,7 @@
         <v>152</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4622,7 +4622,7 @@
         <v>153</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4636,16 +4636,16 @@
         <v>152</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4659,7 +4659,7 @@
         <v>152</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4668,7 +4668,7 @@
         <v>65</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4679,19 +4679,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4705,16 +4705,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4728,16 +4728,16 @@
         <v>170</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4751,7 +4751,7 @@
         <v>170</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4760,7 +4760,7 @@
         <v>175</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4774,7 +4774,7 @@
         <v>170</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4783,7 +4783,7 @@
         <v>175</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4797,7 +4797,7 @@
         <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -4806,7 +4806,7 @@
         <v>175</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4820,7 +4820,7 @@
         <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
@@ -4829,7 +4829,7 @@
         <v>175</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4843,7 +4843,7 @@
         <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
@@ -4852,7 +4852,7 @@
         <v>175</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4866,7 +4866,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
@@ -4875,7 +4875,7 @@
         <v>175</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4889,7 +4889,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
@@ -4898,7 +4898,7 @@
         <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4912,19 +4912,19 @@
         <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4944,7 +4944,7 @@
         <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>22</v>
@@ -4958,19 +4958,19 @@
         <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>34</v>
@@ -4978,25 +4978,25 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187">
@@ -5004,19 +5004,19 @@
         <v>197</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>200</v>
@@ -5027,16 +5027,16 @@
         <v>197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5050,16 +5050,16 @@
         <v>197</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5073,7 +5073,7 @@
         <v>197</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
@@ -5082,7 +5082,7 @@
         <v>198</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5096,7 +5096,7 @@
         <v>197</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
@@ -5105,7 +5105,7 @@
         <v>198</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5119,7 +5119,7 @@
         <v>197</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
@@ -5128,7 +5128,7 @@
         <v>198</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5142,16 +5142,16 @@
         <v>197</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5165,7 +5165,7 @@
         <v>197</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5174,10 +5174,10 @@
         <v>198</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>200</v>
@@ -5188,7 +5188,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5197,10 +5197,10 @@
         <v>198</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>200</v>
@@ -5211,7 +5211,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5220,10 +5220,10 @@
         <v>198</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>200</v>
@@ -5234,7 +5234,7 @@
         <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5243,7 +5243,7 @@
         <v>198</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>199</v>
@@ -5257,19 +5257,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>200</v>
@@ -5280,7 +5280,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
@@ -5289,7 +5289,7 @@
         <v>198</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5303,19 +5303,19 @@
         <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>200</v>
@@ -5326,7 +5326,7 @@
         <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5335,7 +5335,7 @@
         <v>198</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>199</v>
@@ -5349,7 +5349,7 @@
         <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5358,10 +5358,10 @@
         <v>198</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>200</v>
@@ -5372,7 +5372,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
@@ -5381,10 +5381,10 @@
         <v>198</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>200</v>
@@ -5395,7 +5395,7 @@
         <v>197</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5404,10 +5404,10 @@
         <v>198</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>200</v>
@@ -5418,7 +5418,7 @@
         <v>197</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
@@ -5427,10 +5427,10 @@
         <v>198</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>200</v>
@@ -5441,7 +5441,7 @@
         <v>197</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5450,10 +5450,10 @@
         <v>198</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>200</v>
@@ -5464,7 +5464,7 @@
         <v>197</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
@@ -5473,10 +5473,10 @@
         <v>198</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>200</v>
@@ -5487,7 +5487,7 @@
         <v>197</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5496,7 +5496,7 @@
         <v>198</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>199</v>
@@ -5510,19 +5510,19 @@
         <v>197</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>200</v>
@@ -5533,7 +5533,7 @@
         <v>197</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>17</v>
@@ -5542,7 +5542,7 @@
         <v>198</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5556,7 +5556,7 @@
         <v>197</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>17</v>
@@ -5565,7 +5565,7 @@
         <v>198</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5576,25 +5576,25 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213">
@@ -5602,19 +5602,19 @@
         <v>201</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>34</v>
@@ -5625,19 +5625,19 @@
         <v>201</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>34</v>
@@ -5648,16 +5648,16 @@
         <v>201</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5671,44 +5671,21 @@
         <v>201</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -706,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1833,7 +1839,7 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>77</v>
@@ -4961,7 +4967,7 @@
         <v>195</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>175</v>
@@ -4970,7 +4976,7 @@
         <v>196</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>34</v>
@@ -4978,634 +4984,634 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>129</v>
@@ -5614,7 +5620,7 @@
         <v>205</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>34</v>
@@ -5622,22 +5628,22 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>34</v>
@@ -5645,7 +5651,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>208</v>
@@ -5654,7 +5660,7 @@
         <v>17</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>209</v>
@@ -5668,16 +5674,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>211</v>
@@ -5686,6 +5692,29 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -5289,7 +5289,7 @@
         <v>100</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>200</v>
@@ -5312,7 +5312,7 @@
         <v>102</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>200</v>
@@ -5321,7 +5321,7 @@
         <v>103</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>202</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_109.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="218">
   <si>
     <t>Sezione</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -712,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1632,7 +1644,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>77</v>
@@ -1655,7 +1667,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>77</v>
@@ -1701,7 +1713,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
@@ -1724,7 +1736,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>77</v>
@@ -1790,7 +1802,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1799,7 +1811,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1813,7 +1825,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1822,7 +1834,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1836,7 +1848,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2069,7 +2081,7 @@
         <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>77</v>
@@ -2092,7 +2104,7 @@
         <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>77</v>
@@ -2141,10 +2153,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2158,16 +2170,16 @@
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2178,65 +2190,65 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2259,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2282,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2305,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2328,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2351,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2374,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2397,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2420,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2443,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2466,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2489,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2512,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2535,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2558,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2581,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2604,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2627,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2638,19 +2650,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2661,19 +2673,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2696,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2719,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2742,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2753,114 +2765,114 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2868,19 +2880,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2903,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2926,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2937,22 +2949,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2960,22 +2972,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2983,22 +2995,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>34</v>
@@ -3006,22 +3018,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>34</v>
@@ -3029,19 +3041,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3064,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3087,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -3098,22 +3110,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -3121,22 +3133,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3144,19 +3156,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>21</v>
@@ -3167,19 +3179,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3190,22 +3202,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>34</v>
@@ -3213,22 +3225,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>34</v>
@@ -3236,19 +3248,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3259,22 +3271,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3282,22 +3294,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3305,19 +3317,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3328,22 +3340,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>34</v>
@@ -3351,19 +3363,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3386,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>21</v>
@@ -3397,22 +3409,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3420,22 +3432,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3443,22 +3455,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>34</v>
@@ -3466,916 +3478,916 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4386,19 +4398,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4409,19 +4421,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4432,19 +4444,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4455,19 +4467,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4478,19 +4490,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4501,19 +4513,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4524,10 +4536,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
@@ -4536,7 +4548,7 @@
         <v>65</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4547,19 +4559,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4570,19 +4582,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4593,19 +4605,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4616,19 +4628,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4639,19 +4651,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4662,19 +4674,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4685,19 +4697,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4708,19 +4720,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4731,19 +4743,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4754,19 +4766,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4777,19 +4789,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4800,19 +4812,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4823,19 +4835,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4846,19 +4858,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4869,19 +4881,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4892,19 +4904,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4915,22 +4927,22 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>34</v>
@@ -4938,22 +4950,22 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>34</v>
@@ -4961,22 +4973,22 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>34</v>
@@ -4984,19 +4996,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5007,600 +5019,600 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213">
@@ -5608,22 +5620,22 @@
         <v>203</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214">
@@ -5631,22 +5643,22 @@
         <v>203</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="215">
@@ -5654,22 +5666,22 @@
         <v>203</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216">
@@ -5677,22 +5689,22 @@
         <v>203</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217">
@@ -5700,21 +5712,251 @@
         <v>203</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="C225" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
         <v>34</v>
       </c>
     </row>
